--- a/natmiOut/OldD4/LR-pairs_lrc2p/Icam2-Itgam.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Icam2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Icam2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.2175042085639</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H2">
-        <v>34.2175042085639</v>
+        <v>113.348143</v>
       </c>
       <c r="I2">
-        <v>0.8078283798237483</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J2">
-        <v>0.8078283798237483</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.559365894940731</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N2">
-        <v>0.559365894940731</v>
+        <v>2.89089</v>
       </c>
       <c r="O2">
-        <v>0.0030684288305113</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P2">
-        <v>0.0030684288305113</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q2">
-        <v>19.14010486426158</v>
+        <v>36.40855701303</v>
       </c>
       <c r="R2">
-        <v>19.14010486426158</v>
+        <v>327.67701311727</v>
       </c>
       <c r="S2">
-        <v>0.002478763890756422</v>
+        <v>0.003639033972391063</v>
       </c>
       <c r="T2">
-        <v>0.002478763890756422</v>
+        <v>0.003655141852066301</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.2175042085639</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H3">
-        <v>34.2175042085639</v>
+        <v>113.348143</v>
       </c>
       <c r="I3">
-        <v>0.8078283798237483</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J3">
-        <v>0.8078283798237483</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.5805052460525</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N3">
-        <v>67.5805052460525</v>
+        <v>214.875363</v>
       </c>
       <c r="O3">
-        <v>0.3707161493989182</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P3">
-        <v>0.3707161493989182</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q3">
-        <v>2312.436222673676</v>
+        <v>2706.191485833434</v>
       </c>
       <c r="R3">
-        <v>2312.436222673676</v>
+        <v>24355.72337250091</v>
       </c>
       <c r="S3">
-        <v>0.2994750263434268</v>
+        <v>0.2704837423031874</v>
       </c>
       <c r="T3">
-        <v>0.2994750263434268</v>
+        <v>0.2716810159775151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.2175042085639</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H4">
-        <v>34.2175042085639</v>
+        <v>113.348143</v>
       </c>
       <c r="I4">
-        <v>0.8078283798237483</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J4">
-        <v>0.8078283798237483</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>114.157299768955</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N4">
-        <v>114.157299768955</v>
+        <v>405.066185</v>
       </c>
       <c r="O4">
-        <v>0.6262154217705705</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P4">
-        <v>0.6262154217705705</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q4">
-        <v>3906.177885282509</v>
+        <v>5101.499984649383</v>
       </c>
       <c r="R4">
-        <v>3906.177885282509</v>
+        <v>45913.49986184445</v>
       </c>
       <c r="S4">
-        <v>0.5058745895895652</v>
+        <v>0.5098947411633936</v>
       </c>
       <c r="T4">
-        <v>0.5058745895895652</v>
+        <v>0.5121517476107118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.02494686995721</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H5">
-        <v>1.02494686995721</v>
+        <v>113.348143</v>
       </c>
       <c r="I5">
-        <v>0.0241975909264513</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J5">
-        <v>0.0241975909264513</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.559365894940731</v>
+        <v>0.324361</v>
       </c>
       <c r="N5">
-        <v>0.559365894940731</v>
+        <v>0.648722</v>
       </c>
       <c r="O5">
-        <v>0.0030684288305113</v>
+        <v>0.001559914055329434</v>
       </c>
       <c r="P5">
-        <v>0.0030684288305113</v>
+        <v>0.001040483725282092</v>
       </c>
       <c r="Q5">
-        <v>0.5733203231803158</v>
+        <v>12.25523900387433</v>
       </c>
       <c r="R5">
-        <v>0.5733203231803158</v>
+        <v>73.53143402324599</v>
       </c>
       <c r="S5">
-        <v>7.42485856276418E-05</v>
+        <v>0.001224910700495769</v>
       </c>
       <c r="T5">
-        <v>7.42485856276418E-05</v>
+        <v>0.0008202217768770706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.02494686995721</v>
+        <v>1.270981</v>
       </c>
       <c r="H6">
-        <v>1.02494686995721</v>
+        <v>3.812943</v>
       </c>
       <c r="I6">
-        <v>0.0241975909264513</v>
+        <v>0.02641494196933943</v>
       </c>
       <c r="J6">
-        <v>0.0241975909264513</v>
+        <v>0.02651806969185035</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>67.5805052460525</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N6">
-        <v>67.5805052460525</v>
+        <v>2.89089</v>
       </c>
       <c r="O6">
-        <v>0.3707161493989182</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P6">
-        <v>0.3707161493989182</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q6">
-        <v>69.26642732206831</v>
+        <v>1.22475542103</v>
       </c>
       <c r="R6">
-        <v>69.26642732206831</v>
+        <v>11.02279878927</v>
       </c>
       <c r="S6">
-        <v>0.008970437732984228</v>
+        <v>0.0001224142605652631</v>
       </c>
       <c r="T6">
-        <v>0.008970437732984228</v>
+        <v>0.0001229561170564853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.02494686995721</v>
+        <v>1.270981</v>
       </c>
       <c r="H7">
-        <v>1.02494686995721</v>
+        <v>3.812943</v>
       </c>
       <c r="I7">
-        <v>0.0241975909264513</v>
+        <v>0.02641494196933943</v>
       </c>
       <c r="J7">
-        <v>0.0241975909264513</v>
+        <v>0.02651806969185035</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>114.157299768955</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N7">
-        <v>114.157299768955</v>
+        <v>214.875363</v>
       </c>
       <c r="O7">
-        <v>0.6262154217705705</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P7">
-        <v>0.6262154217705705</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q7">
-        <v>117.0051670809573</v>
+        <v>91.03416791370098</v>
       </c>
       <c r="R7">
-        <v>117.0051670809573</v>
+        <v>819.3075112233089</v>
       </c>
       <c r="S7">
-        <v>0.01515290460783943</v>
+        <v>0.009098861829864673</v>
       </c>
       <c r="T7">
-        <v>0.01515290460783943</v>
+        <v>0.009139137181138948</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.55495930897067</v>
+        <v>1.270981</v>
       </c>
       <c r="H8">
-        <v>2.55495930897067</v>
+        <v>3.812943</v>
       </c>
       <c r="I8">
-        <v>0.06031908775406283</v>
+        <v>0.02641494196933943</v>
       </c>
       <c r="J8">
-        <v>0.06031908775406283</v>
+        <v>0.02651806969185035</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.559365894940731</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N8">
-        <v>0.559365894940731</v>
+        <v>405.066185</v>
       </c>
       <c r="O8">
-        <v>0.0030684288305113</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P8">
-        <v>0.0030684288305113</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q8">
-        <v>1.42915710039953</v>
+        <v>171.6104749591616</v>
       </c>
       <c r="R8">
-        <v>1.42915710039953</v>
+        <v>1544.494274632455</v>
       </c>
       <c r="S8">
-        <v>0.0001850848278947075</v>
+        <v>0.01715246083966081</v>
       </c>
       <c r="T8">
-        <v>0.0001850848278947075</v>
+        <v>0.01722838477371465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.55495930897067</v>
+        <v>1.270981</v>
       </c>
       <c r="H9">
-        <v>2.55495930897067</v>
+        <v>3.812943</v>
       </c>
       <c r="I9">
-        <v>0.06031908775406283</v>
+        <v>0.02641494196933943</v>
       </c>
       <c r="J9">
-        <v>0.06031908775406283</v>
+        <v>0.02651806969185035</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>67.5805052460525</v>
+        <v>0.324361</v>
       </c>
       <c r="N9">
-        <v>67.5805052460525</v>
+        <v>0.648722</v>
       </c>
       <c r="O9">
-        <v>0.3707161493989182</v>
+        <v>0.001559914055329434</v>
       </c>
       <c r="P9">
-        <v>0.3707161493989182</v>
+        <v>0.001040483725282092</v>
       </c>
       <c r="Q9">
-        <v>172.665440983343</v>
+        <v>0.412256668141</v>
       </c>
       <c r="R9">
-        <v>172.665440983343</v>
+        <v>2.473540008846</v>
       </c>
       <c r="S9">
-        <v>0.02236125994744161</v>
+        <v>4.120503924868392E-05</v>
       </c>
       <c r="T9">
-        <v>0.02236125994744161</v>
+        <v>2.759161994026659E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.55495930897067</v>
+        <v>3.189763000000001</v>
       </c>
       <c r="H10">
-        <v>2.55495930897067</v>
+        <v>9.569289000000001</v>
       </c>
       <c r="I10">
-        <v>0.06031908775406283</v>
+        <v>0.0662932054381191</v>
       </c>
       <c r="J10">
-        <v>0.06031908775406283</v>
+        <v>0.06655202362150626</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>114.157299768955</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N10">
-        <v>114.157299768955</v>
+        <v>2.89089</v>
       </c>
       <c r="O10">
-        <v>0.6262154217705705</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P10">
-        <v>0.6262154217705705</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q10">
-        <v>291.6672557316469</v>
+        <v>3.073751319690001</v>
       </c>
       <c r="R10">
-        <v>291.6672557316469</v>
+        <v>27.66376187721001</v>
       </c>
       <c r="S10">
-        <v>0.03777274297872651</v>
+        <v>0.0003072213345623855</v>
       </c>
       <c r="T10">
-        <v>0.03777274297872651</v>
+        <v>0.0003085812241177845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.55998267169915</v>
+        <v>3.189763000000001</v>
       </c>
       <c r="H11">
-        <v>4.55998267169915</v>
+        <v>9.569289000000001</v>
       </c>
       <c r="I11">
-        <v>0.1076549414957373</v>
+        <v>0.0662932054381191</v>
       </c>
       <c r="J11">
-        <v>0.1076549414957373</v>
+        <v>0.06655202362150626</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.559365894940731</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N11">
-        <v>0.559365894940731</v>
+        <v>214.875363</v>
       </c>
       <c r="O11">
-        <v>0.0030684288305113</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P11">
-        <v>0.0030684288305113</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q11">
-        <v>2.550698788069221</v>
+        <v>228.467160836323</v>
       </c>
       <c r="R11">
-        <v>2.550698788069221</v>
+        <v>2056.204447526907</v>
       </c>
       <c r="S11">
-        <v>0.0003303315262325277</v>
+        <v>0.02283528456130708</v>
       </c>
       <c r="T11">
-        <v>0.0003303315262325277</v>
+        <v>0.02293636303951146</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.55998267169915</v>
+        <v>3.189763000000001</v>
       </c>
       <c r="H12">
-        <v>4.55998267169915</v>
+        <v>9.569289000000001</v>
       </c>
       <c r="I12">
-        <v>0.1076549414957373</v>
+        <v>0.0662932054381191</v>
       </c>
       <c r="J12">
-        <v>0.1076549414957373</v>
+        <v>0.06655202362150626</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>67.5805052460525</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N12">
-        <v>67.5805052460525</v>
+        <v>405.066185</v>
       </c>
       <c r="O12">
-        <v>0.3707161493989182</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P12">
-        <v>0.3707161493989182</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q12">
-        <v>308.1659328666729</v>
+        <v>430.6883764880517</v>
       </c>
       <c r="R12">
-        <v>308.1659328666729</v>
+        <v>3876.195388392465</v>
       </c>
       <c r="S12">
-        <v>0.03990942537506555</v>
+        <v>0.04304728783931388</v>
       </c>
       <c r="T12">
-        <v>0.03990942537506555</v>
+        <v>0.04323783306041425</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.189763000000001</v>
+      </c>
+      <c r="H13">
+        <v>9.569289000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.0662932054381191</v>
+      </c>
+      <c r="J13">
+        <v>0.06655202362150626</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.324361</v>
+      </c>
+      <c r="N13">
+        <v>0.648722</v>
+      </c>
+      <c r="O13">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P13">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q13">
+        <v>1.034634716443</v>
+      </c>
+      <c r="R13">
+        <v>6.207808298658001</v>
+      </c>
+      <c r="S13">
+        <v>0.0001034117029357636</v>
+      </c>
+      <c r="T13">
+        <v>6.924629746276662E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.311165</v>
+      </c>
+      <c r="H14">
+        <v>15.933495</v>
+      </c>
+      <c r="I14">
+        <v>0.1103825432989058</v>
+      </c>
+      <c r="J14">
+        <v>0.1108134925816486</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.89089</v>
+      </c>
+      <c r="O14">
+        <v>0.00463428088190967</v>
+      </c>
+      <c r="P14">
+        <v>0.004636691828827675</v>
+      </c>
+      <c r="Q14">
+        <v>5.11799792895</v>
+      </c>
+      <c r="R14">
+        <v>46.06198136055001</v>
+      </c>
+      <c r="S14">
+        <v>0.0005115437101066856</v>
+      </c>
+      <c r="T14">
+        <v>0.0005138080155771864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.311165</v>
+      </c>
+      <c r="H15">
+        <v>15.933495</v>
+      </c>
+      <c r="I15">
+        <v>0.1103825432989058</v>
+      </c>
+      <c r="J15">
+        <v>0.1108134925816486</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>71.62512099999999</v>
+      </c>
+      <c r="N15">
+        <v>214.875363</v>
+      </c>
+      <c r="O15">
+        <v>0.3444588990740914</v>
+      </c>
+      <c r="P15">
+        <v>0.344638101013349</v>
+      </c>
+      <c r="Q15">
+        <v>380.4128357759649</v>
+      </c>
+      <c r="R15">
+        <v>3423.715521983685</v>
+      </c>
+      <c r="S15">
+        <v>0.03802224934173934</v>
+      </c>
+      <c r="T15">
+        <v>0.03819055164999623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.311165</v>
+      </c>
+      <c r="H16">
+        <v>15.933495</v>
+      </c>
+      <c r="I16">
+        <v>0.1103825432989058</v>
+      </c>
+      <c r="J16">
+        <v>0.1108134925816486</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>135.0220616666666</v>
+      </c>
+      <c r="N16">
+        <v>405.066185</v>
+      </c>
+      <c r="O16">
+        <v>0.6493469059886695</v>
+      </c>
+      <c r="P16">
+        <v>0.6496847234325412</v>
+      </c>
+      <c r="Q16">
+        <v>717.1244481518415</v>
+      </c>
+      <c r="R16">
+        <v>6454.120033366575</v>
+      </c>
+      <c r="S16">
+        <v>0.07167656296630485</v>
+      </c>
+      <c r="T16">
+        <v>0.07199383328050235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.311165</v>
+      </c>
+      <c r="H17">
+        <v>15.933495</v>
+      </c>
+      <c r="I17">
+        <v>0.1103825432989058</v>
+      </c>
+      <c r="J17">
+        <v>0.1108134925816486</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.324361</v>
+      </c>
+      <c r="N17">
+        <v>0.648722</v>
+      </c>
+      <c r="O17">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P17">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q17">
+        <v>1.722734790565</v>
+      </c>
+      <c r="R17">
+        <v>10.33640874339</v>
+      </c>
+      <c r="S17">
+        <v>0.000172187280754973</v>
+      </c>
+      <c r="T17">
+        <v>0.0001152996355728732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.5613635</v>
+      </c>
+      <c r="H18">
+        <v>1.122727</v>
+      </c>
+      <c r="I18">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J18">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N18">
+        <v>2.89089</v>
+      </c>
+      <c r="O18">
+        <v>0.00463428088190967</v>
+      </c>
+      <c r="P18">
+        <v>0.004636691828827675</v>
+      </c>
+      <c r="Q18">
+        <v>0.5409467095050001</v>
+      </c>
+      <c r="R18">
+        <v>3.24568025703</v>
+      </c>
+      <c r="S18">
+        <v>5.40676042842718E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.620462000991796E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.5613635</v>
+      </c>
+      <c r="H19">
+        <v>1.122727</v>
+      </c>
+      <c r="I19">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J19">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>71.62512099999999</v>
+      </c>
+      <c r="N19">
+        <v>214.875363</v>
+      </c>
+      <c r="O19">
+        <v>0.3444588990740914</v>
+      </c>
+      <c r="P19">
+        <v>0.344638101013349</v>
+      </c>
+      <c r="Q19">
+        <v>40.2077286124835</v>
+      </c>
+      <c r="R19">
+        <v>241.246371674901</v>
+      </c>
+      <c r="S19">
+        <v>0.004018761037992887</v>
+      </c>
+      <c r="T19">
+        <v>0.002691033165187256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.55998267169915</v>
-      </c>
-      <c r="H13">
-        <v>4.55998267169915</v>
-      </c>
-      <c r="I13">
-        <v>0.1076549414957373</v>
-      </c>
-      <c r="J13">
-        <v>0.1076549414957373</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>114.157299768955</v>
-      </c>
-      <c r="N13">
-        <v>114.157299768955</v>
-      </c>
-      <c r="O13">
-        <v>0.6262154217705705</v>
-      </c>
-      <c r="P13">
-        <v>0.6262154217705705</v>
-      </c>
-      <c r="Q13">
-        <v>520.5553087944002</v>
-      </c>
-      <c r="R13">
-        <v>520.5553087944002</v>
-      </c>
-      <c r="S13">
-        <v>0.06741518459443924</v>
-      </c>
-      <c r="T13">
-        <v>0.06741518459443924</v>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.5613635</v>
+      </c>
+      <c r="H20">
+        <v>1.122727</v>
+      </c>
+      <c r="I20">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J20">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>135.0220616666666</v>
+      </c>
+      <c r="N20">
+        <v>405.066185</v>
+      </c>
+      <c r="O20">
+        <v>0.6493469059886695</v>
+      </c>
+      <c r="P20">
+        <v>0.6496847234325412</v>
+      </c>
+      <c r="Q20">
+        <v>75.79645711441583</v>
+      </c>
+      <c r="R20">
+        <v>454.778742686495</v>
+      </c>
+      <c r="S20">
+        <v>0.007575853179996343</v>
+      </c>
+      <c r="T20">
+        <v>0.005072924707198174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.5613635</v>
+      </c>
+      <c r="H21">
+        <v>1.122727</v>
+      </c>
+      <c r="I21">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J21">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.324361</v>
+      </c>
+      <c r="N21">
+        <v>0.648722</v>
+      </c>
+      <c r="O21">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P21">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q21">
+        <v>0.1820844262235</v>
+      </c>
+      <c r="R21">
+        <v>0.7283377048940001</v>
+      </c>
+      <c r="S21">
+        <v>1.819933189424435E-05</v>
+      </c>
+      <c r="T21">
+        <v>8.124395429114908E-06</v>
       </c>
     </row>
   </sheetData>
